--- a/Datos horarios faltantes.xlsx
+++ b/Datos horarios faltantes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\projects\IAPP\piloto\Climate\ClimateDataETL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ACCF1B4C-D511-4D01-A9ED-256BF285B149}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B38FBF07-B2F1-4F82-A10D-F2695D3A0127}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="73">
   <si>
     <t>ARAUCA</t>
   </si>
@@ -343,6 +344,9 @@
   <si>
     <t>GRUPOS DE ESTACIONES</t>
   </si>
+  <si>
+    <t>RS</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,6 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
@@ -847,10 +858,10 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="11"/>
       <c r="I5" t="s">
         <v>5</v>
       </c>
@@ -1910,4 +1921,412 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B147E-D9AE-4575-89B7-B97EA80027BE}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>